--- a/medicine/Autisme/Corps_et_Âme_(film,_2017)/Corps_et_Âme_(film,_2017).xlsx
+++ b/medicine/Autisme/Corps_et_Âme_(film,_2017)/Corps_et_Âme_(film,_2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps et Âme (Testről és lélekről) est un film dramatique hongrois, écrit et réalisé par Ildikó Enyedi, sorti en 2017.
 Le film remporte l'Ours d'or lors du Festival international du film de Berlin, ainsi que le prix FIPRESCI, le prix du jury œcuménique et le prix du jury des lecteurs du Berliner Morgenpost. En France, ce film aura cumulé un total de près de 70 608 spectateurs en salles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mária (Alexandra Borbély), nouvelle responsable du contrôle de qualité d'un abattoir, très rigoureuse et au comportement autistique, et le directeur financier Endre (Géza Morcsányi), au tempérament réservé et dont la main gauche est paralysée, se retrouvent chaque nuit dans un rêve partagé, sous forme d'un cerf et d'une biche qui font connaissance dans un paysage enneigé. Ils ne s'en rendent compte que lorsque chacun d'eux parle, de son côté, à une psychologue de l'entreprise  de ce rêve. Celle-ci croit qu'ils se moquent d'elle. Cependant, Maria et Endre n'arrivent pas à vraiment ressentir l'un envers l'autre l'amour qu'ils éprouvent en tant que cerf et biche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Corps et Âme
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Géza Morcsányi (hu) (VF : Philippe Mijon) : Endre, directeur financier
@@ -635,7 +653,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -655,9 +673,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musique
-La musique originale est composée par Ádám Balázs.
-Un extrait musical de la chanson What He Wrote de la chanteuse folk anglaise Laura Marling est aussi inclus dans le film[1].
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique originale est composée par Ádám Balázs.
+Un extrait musical de la chanson What He Wrote de la chanteuse folk anglaise Laura Marling est aussi inclus dans le film.
 </t>
         </is>
       </c>
@@ -668,7 +691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -688,16 +711,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Critiques
-En regard du box-office, Corps et Âme a été largement acclamé par la critique. Il obtient 90 % d'avis positifs sur Rotten Tomatoes, sur la base de 59 commentaires collectées, qui remarque « des performances tendres et un fort sens du style se combinent pour créer un portrait excentrique et rêveur de l'amour et de la solitude dans Corps et Âme. »[2]. Sur Metacritic, il obtient une note favorable de 77/100, sur la base de 10 commentaires collectées, ce qui lui permet d'obtenir le label « Avis généralement favorables »[3] et est évalué à une moyenne de 3,3/5 pour 20 critiques de presse sur Allociné. 
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En regard du box-office, Corps et Âme a été largement acclamé par la critique. Il obtient 90 % d'avis positifs sur Rotten Tomatoes, sur la base de 59 commentaires collectées, qui remarque « des performances tendres et un fort sens du style se combinent pour créer un portrait excentrique et rêveur de l'amour et de la solitude dans Corps et Âme. ». Sur Metacritic, il obtient une note favorable de 77/100, sur la base de 10 commentaires collectées, ce qui lui permet d'obtenir le label « Avis généralement favorables » et est évalué à une moyenne de 3,3/5 pour 20 critiques de presse sur Allociné. 
 « Tout l’enjeu du film consistera à réchauffer la glaciation relationnelle urbaine et à saisir la cuisson lente du rapprochement entre ces deux âmes enfermées dans leurs névroses. »
-— Serge Kaganski, Les Inrocks, 20 octobre 2017[4].
+— Serge Kaganski, Les Inrocks, 20 octobre 2017.
 « Ce film hongrois, à l’architecture compliquée, séduit par sa sincérité. »
-— Thomas Sotinel, Le Monde, 25 octobre 2017[5].
+— Thomas Sotinel, Le Monde, 25 octobre 2017.
 « La Hongroise met l’intelligence de sa maturité dans cette réflexion sur le couple où rêve et psychanalyse font bon ménage. Elle ose le romantisme poétique comme le réalisme brutal. Elle célèbre la beauté d’une union possible sans cacher les blessures qui l’accompagnent. C’est ça, l’amour. »
-— Frédéric Strauss, Télérama, 25 octobre 2017[6].
+— Frédéric Strauss, Télérama, 25 octobre 2017.
 « La réalisatrice Ildiko Enyedi (...), signe un film singulier, sans doute trop étiré, parfois un peu démonstratif, mais traversé de séquences d’une réelle magie. La froideur de nos sociétés rationnelles cède peu à peu devant la gracieuse fragilité, la timide poésie du sentiment renaissant. Et sous la peau la vie se remet à pulser. »
-— Arnaud Schwartz, La Croix, 29 octobre 2017[7].</t>
+— Arnaud Schwartz, La Croix, 29 octobre 2017.</t>
         </is>
       </c>
     </row>
@@ -707,7 +735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Corps_et_%C3%82me_(film,_2017)</t>
+          <t>Corps_et_Âme_(film,_2017)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -725,7 +753,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
